--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3171035.360522647</v>
+        <v>3168783.28081144</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>97.03085908134723</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>138.1219706437577</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247588</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>110.7115619691727</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>210.0587346978541</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.74698963171072</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>142.6796929637931</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247588</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
-        <v>131.5730391207949</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>159.5199829376685</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,10 +1142,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>59.91175829592252</v>
+        <v>14.42881909501524</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>12.61028049873698</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1771,13 +1771,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>14.92158678358339</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,13 +2002,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>46.86766651429496</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>40.53421095546916</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>116.4636264596498</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>101.6969570046975</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972916</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2804,10 +2804,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,13 +2950,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>147.6895341487369</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>92.58181139165723</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>48.85497112745768</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>102.1557845699818</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>94.05355358057933</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,16 +3661,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>123.797182079703</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>141.4513012076585</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>65.78783178799331</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,19 +4141,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>51.36569740310371</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1032.061124352532</v>
+        <v>1311.909787855436</v>
       </c>
       <c r="C2" t="n">
-        <v>663.0986074121199</v>
+        <v>1311.909787855436</v>
       </c>
       <c r="D2" t="n">
-        <v>663.0986074121199</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>663.0986074121199</v>
+        <v>828.1105664881546</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912086</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.034709923659</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2182.266054653545</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1808.800296392465</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>1418.660964416653</v>
+        <v>1698.509627919558</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686084</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064759</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080138</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>533.4780323548192</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="C4" t="n">
-        <v>364.5418494269123</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="D4" t="n">
-        <v>214.4252100145765</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="T4" t="n">
-        <v>1815.464687513571</v>
+        <v>1513.842048484844</v>
       </c>
       <c r="U4" t="n">
-        <v>1526.361820639214</v>
+        <v>1224.739181610487</v>
       </c>
       <c r="V4" t="n">
-        <v>1271.677332433327</v>
+        <v>1224.739181610487</v>
       </c>
       <c r="W4" t="n">
-        <v>982.2601623963667</v>
+        <v>1012.558641511645</v>
       </c>
       <c r="X4" t="n">
-        <v>754.2706114983494</v>
+        <v>784.5690906136274</v>
       </c>
       <c r="Y4" t="n">
-        <v>533.4780323548192</v>
+        <v>563.7765114700973</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1311.909787855436</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>942.9472709150248</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>942.9472709150248</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>557.1590183167805</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>550.213517567577</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993393</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V5" t="n">
-        <v>3119.628073993393</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W5" t="n">
-        <v>3119.628073993393</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>2746.162315732313</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y5" t="n">
-        <v>2356.022983756501</v>
+        <v>1698.509627919558</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>511.4317969248226</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
@@ -4729,46 +4729,46 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1794.392488370518</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T7" t="n">
-        <v>1572.625872940044</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="U7" t="n">
-        <v>1283.523006065687</v>
+        <v>1356.675339798489</v>
       </c>
       <c r="V7" t="n">
-        <v>1028.838517859801</v>
+        <v>1101.990851592602</v>
       </c>
       <c r="W7" t="n">
-        <v>739.4213478228399</v>
+        <v>1101.990851592602</v>
       </c>
       <c r="X7" t="n">
-        <v>511.4317969248226</v>
+        <v>874.0013006945851</v>
       </c>
       <c r="Y7" t="n">
-        <v>511.4317969248226</v>
+        <v>712.8700047979503</v>
       </c>
     </row>
     <row r="8">
@@ -4787,10 +4787,10 @@
         <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,10 +4799,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,43 +4811,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3265.088894037532</v>
+        <v>3311.03125686673</v>
       </c>
       <c r="U8" t="n">
-        <v>3011.558417311368</v>
+        <v>3057.500780140566</v>
       </c>
       <c r="V8" t="n">
-        <v>2680.495529967797</v>
+        <v>3057.500780140566</v>
       </c>
       <c r="W8" t="n">
-        <v>2327.726874697683</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="X8" t="n">
-        <v>2327.726874697683</v>
+        <v>2331.266366609372</v>
       </c>
       <c r="Y8" t="n">
-        <v>2327.726874697683</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
         <v>1212.42807043813</v>
@@ -4905,16 +4905,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199866</v>
@@ -4926,7 +4926,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>646.6939999491682</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>867.4865790926983</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>646.6939999491682</v>
       </c>
     </row>
     <row r="11">
@@ -5030,10 +5030,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>691.1951506745238</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1318.79311422913</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O12" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
@@ -5479,7 +5479,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5513,22 +5513,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5592,22 +5592,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>580.8993044876693</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>430.7826650753335</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>282.8695714929404</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>282.8695714929404</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>282.8695714929404</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>141.1577403351385</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,40 +5762,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>119.2902967703784</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,37 +5978,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400717</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D25" t="n">
-        <v>363.7369613277359</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>363.7369613277359</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>363.7369613277359</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>196.5408620426159</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,34 +6236,34 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591809</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>119.2902967703784</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797191</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>119.2902967703784</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969303</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
     <row r="32">
@@ -6680,31 +6680,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>197.0043242297717</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>197.0043242297717</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6926,43 +6926,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>821.2910552385084</v>
       </c>
     </row>
     <row r="38">
@@ -7148,46 +7148,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>119.2902967703784</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969303</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1184.258927726996</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>963.4663485834661</v>
       </c>
     </row>
     <row r="41">
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L42" t="n">
-        <v>119.2902967703784</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969303</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>634.9279362553159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2380.510728238854</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.655893893758</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1978.054428916699</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.979202260897</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1434.29471405501</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>983.3556038098242</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C46" t="n">
-        <v>814.4194208819173</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D46" t="n">
-        <v>664.3027814695815</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E46" t="n">
-        <v>516.3896878871884</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F46" t="n">
-        <v>369.499740389278</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1165.004068640064</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.580957587066223e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.580957587066223e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23659,13 +23659,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>130.4994612393479</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>34.39816980427056</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>105.8997516911</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>32.15184655856254</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>38.59775584152634</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>126.0028419604376</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>118.3918499711702</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>63.36835372228705</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
     </row>
     <row r="38">
@@ -25549,16 +25549,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.22910392194156</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>84.25835418137865</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>16.31315520054598</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.587414922128346</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>114.1584408891651</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>716622.3221339649</v>
+        <v>716622.322133965</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>716622.322133965</v>
+        <v>716622.3221339649</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>716622.322133965</v>
+        <v>716622.3221339649</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26314,22 @@
         <v>718411.5486312481</v>
       </c>
       <c r="C2" t="n">
+        <v>718411.5486312481</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312478</v>
-      </c>
-      <c r="D2" t="n">
-        <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="G2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="H2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="I2" t="n">
         <v>706253.2747287555</v>
@@ -26338,7 +26338,7 @@
         <v>706253.2747287555</v>
       </c>
       <c r="K2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="L2" t="n">
         <v>706253.2747287555</v>
@@ -26347,13 +26347,13 @@
         <v>706253.2747287554</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287556</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>3.894519977620803e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.06702314492</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.0670231448</v>
+        <v>90354.0670231449</v>
       </c>
       <c r="D4" t="n">
         <v>90354.06702314483</v>
@@ -26427,31 +26427,31 @@
         <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
+        <v>11167.03225179354</v>
+      </c>
+      <c r="G4" t="n">
+        <v>11167.03225179354</v>
+      </c>
+      <c r="H4" t="n">
         <v>11167.03225179351</v>
-      </c>
-      <c r="G4" t="n">
-        <v>11167.03225179352</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11167.03225179349</v>
       </c>
       <c r="I4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.0322517935</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179346</v>
+        <v>11167.03225179354</v>
       </c>
       <c r="L4" t="n">
+        <v>11167.03225179354</v>
+      </c>
+      <c r="M4" t="n">
         <v>11167.03225179351</v>
       </c>
-      <c r="M4" t="n">
-        <v>11167.03225179346</v>
-      </c>
       <c r="N4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179353</v>
       </c>
       <c r="O4" t="n">
         <v>11167.03225179352</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-808621.2046808826</v>
+        <v>-808621.2046808823</v>
       </c>
       <c r="C6" t="n">
-        <v>520123.54104671</v>
+        <v>520123.5410467099</v>
       </c>
       <c r="D6" t="n">
-        <v>520123.5410467096</v>
+        <v>520123.5410467094</v>
       </c>
       <c r="E6" t="n">
-        <v>268551.2508456997</v>
+        <v>268516.5129202639</v>
       </c>
       <c r="F6" t="n">
-        <v>593963.712653055</v>
+        <v>593928.9747276192</v>
       </c>
       <c r="G6" t="n">
-        <v>593963.7126530544</v>
+        <v>593928.9747276192</v>
       </c>
       <c r="H6" t="n">
-        <v>593963.7126530546</v>
+        <v>593928.9747276194</v>
       </c>
       <c r="I6" t="n">
-        <v>593963.7126530549</v>
+        <v>593928.9747276192</v>
       </c>
       <c r="J6" t="n">
-        <v>376432.5102557773</v>
+        <v>376397.7723303417</v>
       </c>
       <c r="K6" t="n">
-        <v>593963.7126530549</v>
+        <v>593928.9747276191</v>
       </c>
       <c r="L6" t="n">
-        <v>593963.712653055</v>
+        <v>593928.9747276192</v>
       </c>
       <c r="M6" t="n">
-        <v>508908.6847175429</v>
+        <v>508873.9467921071</v>
       </c>
       <c r="N6" t="n">
-        <v>593963.7126530549</v>
+        <v>593928.9747276193</v>
       </c>
       <c r="O6" t="n">
-        <v>593963.7126530549</v>
+        <v>593928.974727619</v>
       </c>
       <c r="P6" t="n">
-        <v>593963.7126530547</v>
+        <v>593928.9747276193</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,22 +26805,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>257.6521825393357</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>268.7540750979538</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>108.8373873069965</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>76.46426363873687</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>371.9868520317698</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>268.2420326896603</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,13 +27780,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>58.19598621064696</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>59.06467041442633</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>144.0062118436976</v>
+        <v>189.4891510446049</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>213.0993748903002</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29524,10 +29524,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,37 +31355,37 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
@@ -31394,7 +31394,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31443,16 +31443,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
         <v>300.7247737883114</v>
@@ -31461,19 +31461,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780294</v>
@@ -31838,22 +31838,22 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>671.2522281007818</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31862,7 +31862,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,13 +32072,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32090,7 +32090,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32099,7 +32099,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.6580975439405</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338202</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,34 +32792,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338202</v>
+        <v>242.2322097768141</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338201</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33418,34 +33418,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>218.6425359394819</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>167.4835451665588</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>287.9685048518523</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34366,34 +34366,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35486,22 +35486,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>528.6559836563374</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35738,7 +35738,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394598</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394598</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394595</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>25.34951124454049</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396405</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
